--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -310,13 +310,13 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>

--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D4B86-69A7-DA4C-A1F1-0B7FBAC4ED8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465046D-53CA-DE4F-9639-4317C35F8F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>harvestDate</t>
   </si>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,13 +615,13 @@
         <v>52</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -644,13 +644,13 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -667,19 +667,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -691,7 +691,7 @@
         <v>90</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -702,13 +702,13 @@
         <v>52</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -731,13 +731,13 @@
         <v>52</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -754,19 +754,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -778,7 +778,7 @@
         <v>90</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -789,16 +789,16 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>90</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,16 +818,16 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -836,7 +836,7 @@
         <v>90</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -847,16 +847,16 @@
         <v>52</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -865,28 +865,28 @@
         <v>90</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
@@ -894,7 +894,7 @@
         <v>90</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -905,16 +905,16 @@
         <v>52</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -923,7 +923,7 @@
         <v>90</v>
       </c>
       <c r="I12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -934,16 +934,16 @@
         <v>52</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>90</v>
       </c>
       <c r="I13">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -963,16 +963,16 @@
         <v>52</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -992,16 +992,16 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1021,16 +1021,16 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1050,16 +1050,16 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1079,16 +1079,16 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1108,16 +1108,16 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1137,16 +1137,16 @@
         <v>52</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1166,16 +1166,16 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1195,16 +1195,16 @@
         <v>52</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1224,16 +1224,16 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1253,16 +1253,16 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>90</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1311,16 +1311,16 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1340,16 +1340,16 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1358,7 +1358,7 @@
         <v>90</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1369,16 +1369,16 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1387,32 +1387,6 @@
         <v>90</v>
       </c>
       <c r="I28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>90</v>
-      </c>
-      <c r="I29">
         <v>3</v>
       </c>
     </row>

--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465046D-53CA-DE4F-9639-4317C35F8F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F328D-5E99-0342-82FB-9F35ADA792D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
   <si>
     <t>harvestDate</t>
   </si>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -725,19 +725,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -749,7 +749,7 @@
         <v>90</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,16 +760,16 @@
         <v>52</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -778,7 +778,7 @@
         <v>90</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -789,16 +789,16 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>90</v>
       </c>
       <c r="I8">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,16 +818,16 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -836,28 +836,28 @@
         <v>90</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
@@ -865,7 +865,7 @@
         <v>90</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -876,16 +876,16 @@
         <v>52</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>90</v>
       </c>
       <c r="I11">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -905,16 +905,16 @@
         <v>52</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -923,7 +923,7 @@
         <v>90</v>
       </c>
       <c r="I12">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -934,16 +934,16 @@
         <v>52</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -963,16 +963,16 @@
         <v>52</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -992,16 +992,16 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1021,16 +1021,16 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1050,16 +1050,16 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1079,16 +1079,16 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1108,16 +1108,16 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1137,16 +1137,16 @@
         <v>52</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1166,16 +1166,16 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1195,16 +1195,16 @@
         <v>52</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1224,16 +1224,16 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
         <v>90</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1253,16 +1253,16 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1311,16 +1311,16 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1329,7 +1329,7 @@
         <v>90</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1340,16 +1340,16 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1358,35 +1358,6 @@
         <v>90</v>
       </c>
       <c r="I27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>90</v>
-      </c>
-      <c r="I28">
         <v>3</v>
       </c>
     </row>

--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F328D-5E99-0342-82FB-9F35ADA792D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B162FD-158F-2C41-9BA1-F4D76A37F528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,16 +177,16 @@
     <t>CNAG_02700</t>
   </si>
   <si>
-    <t>KN99alpha</t>
-  </si>
-  <si>
-    <t>KN99A</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
     <t>90minuteinduction</t>
+  </si>
+  <si>
+    <t>TDY450</t>
+  </si>
+  <si>
+    <t>TDY451</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,16 +612,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -641,13 +641,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -670,16 +670,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -699,16 +699,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -728,16 +728,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -757,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -786,13 +786,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -815,13 +815,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -844,16 +844,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -873,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -902,13 +902,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -931,13 +931,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -960,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -989,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -1018,13 +1018,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -1047,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -1076,13 +1076,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1105,13 +1105,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -1134,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -1163,13 +1163,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -1192,13 +1192,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -1221,13 +1221,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -1250,13 +1250,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -1279,13 +1279,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1308,13 +1308,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
@@ -1337,13 +1337,13 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>

--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">marker_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker_2</t>
   </si>
   <si>
     <t xml:space="preserve">11.14.18</t>
@@ -205,6 +208,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,9 +301,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -337,28 +341,31 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -369,25 +376,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -398,25 +405,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>90</v>
@@ -427,25 +434,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -456,25 +463,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>90</v>
@@ -485,25 +492,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>90</v>
@@ -512,30 +519,30 @@
         <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>90</v>
@@ -544,30 +551,30 @@
         <v>2</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>90</v>
@@ -576,30 +583,30 @@
         <v>7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>90</v>
@@ -610,25 +617,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>90</v>
@@ -637,30 +644,30 @@
         <v>27</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>90</v>
@@ -669,30 +676,30 @@
         <v>4</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>90</v>
@@ -701,30 +708,30 @@
         <v>4</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>90</v>
@@ -733,30 +740,30 @@
         <v>4</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>90</v>
@@ -765,30 +772,33 @@
         <v>4</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>90</v>
@@ -797,30 +807,30 @@
         <v>4</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>90</v>
@@ -829,30 +839,30 @@
         <v>4</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>90</v>
@@ -861,30 +871,30 @@
         <v>4</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>90</v>
@@ -893,30 +903,30 @@
         <v>4</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>90</v>
@@ -925,30 +935,30 @@
         <v>4</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>90</v>
@@ -957,30 +967,30 @@
         <v>4</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>90</v>
@@ -989,30 +999,30 @@
         <v>4</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>90</v>
@@ -1021,30 +1031,30 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>90</v>
@@ -1053,30 +1063,30 @@
         <v>5</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>90</v>
@@ -1087,25 +1097,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>90</v>
@@ -1114,30 +1124,33 @@
         <v>9</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>90</v>
@@ -1146,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_3357.xlsx
+++ b/bioSample/bioSample_3357.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322F108-369F-D245-8FC5-C24A13AE2651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA9BEC-6B82-4145-AF19-FEACCF022CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="820" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
   <si>
     <t>harvestDate</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>marker_1</t>
-  </si>
-  <si>
-    <t>marker_2</t>
   </si>
   <si>
     <t>11.14.18</t>
@@ -230,6 +227,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,7 +575,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,37 +620,35 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>90</v>
@@ -663,31 +659,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>90</v>
@@ -698,31 +694,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -733,31 +729,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>90</v>
@@ -768,31 +764,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -803,75 +799,75 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>90</v>
@@ -880,39 +876,39 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>90</v>
@@ -921,36 +917,36 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -961,34 +957,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>90</v>
@@ -997,39 +993,39 @@
         <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>90</v>
@@ -1038,39 +1034,39 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>90</v>
@@ -1079,39 +1075,39 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <v>90</v>
@@ -1120,39 +1116,39 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <v>90</v>
@@ -1161,42 +1157,39 @@
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16">
         <v>90</v>
@@ -1205,39 +1198,39 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -1246,39 +1239,39 @@
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>90</v>
@@ -1287,39 +1280,39 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19">
         <v>90</v>
@@ -1328,39 +1321,39 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <v>90</v>
@@ -1369,39 +1362,39 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>90</v>
@@ -1410,39 +1403,39 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -1451,39 +1444,39 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23">
         <v>90</v>
@@ -1492,39 +1485,39 @@
         <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24">
         <v>90</v>
@@ -1533,39 +1526,39 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
         <v>60</v>
       </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25">
         <v>90</v>
@@ -1574,39 +1567,39 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26">
         <v>90</v>
@@ -1615,42 +1608,39 @@
         <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27">
         <v>90</v>
@@ -1659,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
